--- a/artifact/data/start-01.data.xlsx
+++ b/artifact/data/start-01.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4D4F3-A10E-2945-B3D3-77262B3BD1F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202450F5-F399-4249-9DDD-96EDF87E8241}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="440" windowWidth="28800" windowHeight="7840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="6840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>true</t>
   </si>
@@ -1111,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5FA257-DC5D-F340-ABF8-39CB4B7DF3BA}">
   <dimension ref="A1:AAA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1222,9 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63120A5B-2C90-0346-AF50-5EFE2AC7C134}">
   <dimension ref="A1:AAA29"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1235,61 +1233,46 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703" ht="24" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="209:703" ht="24" customHeight="1">
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703" ht="24" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="209:703" ht="24" customHeight="1">
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
     </row>
-    <row r="3" spans="1:703" ht="24" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="209:703" ht="24" customHeight="1">
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703" ht="24" customHeight="1">
+    <row r="4" spans="209:703" ht="24" customHeight="1">
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703" ht="24" customHeight="1">
+    <row r="5" spans="209:703" ht="24" customHeight="1">
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703" ht="24" customHeight="1">
+    <row r="6" spans="209:703" ht="24" customHeight="1">
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" ht="24" customHeight="1">
+    <row r="7" spans="209:703" ht="24" customHeight="1">
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703" ht="24" customHeight="1">
+    <row r="8" spans="209:703" ht="24" customHeight="1">
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703" ht="24" customHeight="1"/>
-    <row r="10" spans="1:703" ht="24" customHeight="1"/>
-    <row r="11" spans="1:703" ht="24" customHeight="1"/>
-    <row r="12" spans="1:703" ht="24" customHeight="1"/>
-    <row r="13" spans="1:703" ht="24" customHeight="1"/>
-    <row r="14" spans="1:703" ht="24" customHeight="1"/>
-    <row r="15" spans="1:703" ht="24" customHeight="1"/>
-    <row r="16" spans="1:703" ht="24" customHeight="1"/>
+    <row r="9" spans="209:703" ht="24" customHeight="1"/>
+    <row r="10" spans="209:703" ht="24" customHeight="1"/>
+    <row r="11" spans="209:703" ht="24" customHeight="1"/>
+    <row r="12" spans="209:703" ht="24" customHeight="1"/>
+    <row r="13" spans="209:703" ht="24" customHeight="1"/>
+    <row r="14" spans="209:703" ht="24" customHeight="1"/>
+    <row r="15" spans="209:703" ht="24" customHeight="1"/>
+    <row r="16" spans="209:703" ht="24" customHeight="1"/>
     <row r="17" ht="24" customHeight="1"/>
     <row r="18" ht="24" customHeight="1"/>
     <row r="19" ht="24" customHeight="1"/>

--- a/artifact/data/start-01.data.xlsx
+++ b/artifact/data/start-01.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202450F5-F399-4249-9DDD-96EDF87E8241}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A586B33-2608-AD47-81F3-8B72E7F5F480}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="6840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="lab1" sheetId="3" r:id="rId2"/>
     <sheet name="lab2" sheetId="4" r:id="rId3"/>
     <sheet name="lab3" sheetId="5" r:id="rId4"/>
+    <sheet name="lab4" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>true</t>
   </si>
@@ -121,6 +122,18 @@
   </si>
   <si>
     <t>Text 3</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>${syspath|out|fullpath)/output.txt</t>
   </si>
 </sst>
 </file>
@@ -253,7 +266,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -960,21 +1038,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="22" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="27" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="26" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1073,32 +1151,32 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A3 A5:A1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="22" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="21" priority="5" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="7" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="13" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="beginsWith" dxfId="12" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1195,21 +1273,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1222,7 +1300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63120A5B-2C90-0346-AF50-5EFE2AC7C134}">
   <dimension ref="A1:AAA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1289,6 +1369,114 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD60C1F-ACF9-3E47-A249-B1D5D6DED552}">
+  <dimension ref="A1:AAA29"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703" ht="24" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703" ht="24" customHeight="1">
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703" ht="24" customHeight="1">
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703" ht="24" customHeight="1">
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703" ht="24" customHeight="1">
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703" ht="24" customHeight="1">
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703" ht="24" customHeight="1">
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703" ht="24" customHeight="1"/>
+    <row r="10" spans="1:703" ht="24" customHeight="1"/>
+    <row r="11" spans="1:703" ht="24" customHeight="1"/>
+    <row r="12" spans="1:703" ht="24" customHeight="1"/>
+    <row r="13" spans="1:703" ht="24" customHeight="1"/>
+    <row r="14" spans="1:703" ht="24" customHeight="1"/>
+    <row r="15" spans="1:703" ht="24" customHeight="1"/>
+    <row r="16" spans="1:703" ht="24" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1"/>
+    <row r="18" ht="24" customHeight="1"/>
+    <row r="19" ht="24" customHeight="1"/>
+    <row r="20" ht="24" customHeight="1"/>
+    <row r="21" ht="24" customHeight="1"/>
+    <row r="22" ht="24" customHeight="1"/>
+    <row r="23" ht="24" customHeight="1"/>
+    <row r="24" ht="24" customHeight="1"/>
+    <row r="25" ht="24" customHeight="1"/>
+    <row r="26" ht="24" customHeight="1"/>
+    <row r="27" ht="24" customHeight="1"/>
+    <row r="28" ht="24" customHeight="1"/>
+    <row r="29" ht="24" customHeight="1"/>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>

--- a/artifact/data/start-01.data.xlsx
+++ b/artifact/data/start-01.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A586B33-2608-AD47-81F3-8B72E7F5F480}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A64B09-456E-4249-B816-E619C5C7066E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="6840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="6840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -53,30 +53,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
   </si>
   <si>
     <t>nexial.openResult</t>
@@ -918,9 +903,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA20"/>
+  <dimension ref="A1:AAA17"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -934,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -944,30 +929,30 @@
     </row>
     <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703" ht="24" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
@@ -977,54 +962,27 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703" ht="24" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703" ht="24" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703" ht="24" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703" ht="24" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703" ht="24" customHeight="1">
-      <c r="B10" s="7"/>
-    </row>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:703" ht="24" customHeight="1"/>
+    <row r="9" spans="1:703" ht="24" customHeight="1"/>
+    <row r="10" spans="1:703" ht="24" customHeight="1"/>
     <row r="11" spans="1:703" ht="24" customHeight="1"/>
     <row r="12" spans="1:703" ht="24" customHeight="1"/>
     <row r="13" spans="1:703" ht="24" customHeight="1"/>
@@ -1032,9 +990,6 @@
     <row r="15" spans="1:703" ht="24" customHeight="1"/>
     <row r="16" spans="1:703" ht="24" customHeight="1"/>
     <row r="17" ht="24" customHeight="1"/>
-    <row r="18" ht="24" customHeight="1"/>
-    <row r="19" ht="24" customHeight="1"/>
-    <row r="20" ht="24" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -1081,20 +1036,20 @@
   <sheetData>
     <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
@@ -1204,27 +1159,27 @@
   <sheetData>
     <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
     </row>
     <row r="3" spans="1:703" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
@@ -1300,9 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63120A5B-2C90-0346-AF50-5EFE2AC7C134}">
   <dimension ref="A1:AAA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1411,20 +1364,20 @@
   <sheetData>
     <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="HA2" s="4"/>
       <c r="AAA2" s="5"/>
